--- a/biology/Médecine/Deutsche_Medizinische_Wochenschrift/Deutsche_Medizinische_Wochenschrift.xlsx
+++ b/biology/Médecine/Deutsche_Medizinische_Wochenschrift/Deutsche_Medizinische_Wochenschrift.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le périodique Deutsche Medizinische Wochenschrift (« German Medical Weekly », « L'Hebdomadaire médical allemand ») (DMW) est une revue médicale allemande fondée en 1875 par Paul Börner[1].
-Dans les années 1980, la DMW était la dixième des revues les plus citées dans le monde. Mais depuis, à cause du déclin de l'allemand et de la prolifération des publications médicales en anglais, elle a beaucoup perdu de sa prééminence[2], et en 2008, d'après le Journal Citation Reports, son facteur d'impact n'était plus que de 0,625, au 86e rang sur 107 dans la catégorie « Médecine générale – médecine interne ».
+Le périodique Deutsche Medizinische Wochenschrift (« German Medical Weekly », « L'Hebdomadaire médical allemand ») (DMW) est une revue médicale allemande fondée en 1875 par Paul Börner.
+Dans les années 1980, la DMW était la dixième des revues les plus citées dans le monde. Mais depuis, à cause du déclin de l'allemand et de la prolifération des publications médicales en anglais, elle a beaucoup perdu de sa prééminence, et en 2008, d'après le Journal Citation Reports, son facteur d'impact n'était plus que de 0,625, au 86e rang sur 107 dans la catégorie « Médecine générale – médecine interne ».
 De nos jours, la revue est éditée par Georg Thieme Verlag ; c'est l'organe officiel de la Deutsche Gesellschaft für innere Medizin et de la Gesellschaft deutscher Naturforscher und Ärzte. Le rédacteur en chef en est Martin Middeke.
 </t>
         </is>
